--- a/Assignment/Assignment One (20160114)/report/Korth has finally made a PPC gun! - Calguns.net.xlsx
+++ b/Assignment/Assignment One (20160114)/report/Korth has finally made a PPC gun! - Calguns.net.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Extractions and Score" sheetId="1" r:id="rId1"/>
+    <sheet name="Information should be extracted" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -23,9 +24,449 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="144">
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argument1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relation Phrase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argument2</t>
+  </si>
+  <si>
+    <t>Extractions Sentence</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>Useless</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>'ll be</t>
+  </si>
+  <si>
+    <t>no effort</t>
+  </si>
+  <si>
+    <t>Assuming they 'll be no effort to get this on the California roster I must ask . .</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>must ask</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>could be brought in under</t>
+  </si>
+  <si>
+    <t>SAE</t>
+  </si>
+  <si>
+    <t>It could be brought in under SAE but I 'd be scared so have someone monkeying with the internals of a Korth to do that .</t>
+  </si>
+  <si>
+    <t>'m concerned</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>As far as I 'm concerned that 's a major drawback for the SAE option .</t>
+  </si>
+  <si>
+    <t>'s a major drawback for</t>
+  </si>
+  <si>
+    <t>the SAE option</t>
+  </si>
+  <si>
+    <t>God 's green Earth</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>freakin' rails</t>
+  </si>
+  <si>
+    <t>Why on God 's green Earth would anybody need freakin' rails on the side of a PPC gun ?</t>
+  </si>
+  <si>
+    <t>the SAE hammer</t>
+  </si>
+  <si>
+    <t>does n't fit in</t>
+  </si>
+  <si>
+    <t>a modified action</t>
+  </si>
+  <si>
+    <t>If for some reason the SAE hammer does n't fit in a modified action , just do your whittling on it instead of the other action parts .</t>
+  </si>
+  <si>
+    <t>just do</t>
+  </si>
+  <si>
+    <t>your whittling</t>
+  </si>
+  <si>
+    <t>can see</t>
+  </si>
+  <si>
+    <t>MAYBE</t>
+  </si>
+  <si>
+    <t>I can see MAYBE if you were going for the high speed tactical entry assault revolver thing like Smith 's R8 , but for any kind of target work ? ? ?</t>
+  </si>
+  <si>
+    <t>were going for</t>
+  </si>
+  <si>
+    <t>the high speed tactical entry assault revolver thing</t>
+  </si>
+  <si>
+    <t>a video camera or side</t>
+  </si>
+  <si>
+    <t>mounted</t>
+  </si>
+  <si>
+    <t>optics</t>
+  </si>
+  <si>
+    <t>Maybe for a video camera or side mounted optics .</t>
+  </si>
+  <si>
+    <t>do n't like the looks of</t>
+  </si>
+  <si>
+    <t>that gun</t>
+  </si>
+  <si>
+    <t>Persoanlly I do n't like the looks of that gun .</t>
+  </si>
+  <si>
+    <t>someone</t>
+  </si>
+  <si>
+    <t>will buy</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>Make something tacticool with rails and someone will buy it .</t>
+  </si>
+  <si>
+    <t>'m with</t>
+  </si>
+  <si>
+    <t>I 'm with you on that .</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>IMO , I think it 's rather ugly .</t>
+  </si>
+  <si>
+    <t>They</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>similar rail</t>
+  </si>
+  <si>
+    <t>They used similar rail on their Sky Marshall 9mm compact revolver .</t>
+  </si>
+  <si>
+    <t>do n't need</t>
+  </si>
+  <si>
+    <t>a rail</t>
+  </si>
+  <si>
+    <t>I do n't need a rail on a PPC gun , but I do n't think its too ugly .</t>
+  </si>
+  <si>
+    <t>do n't think</t>
+  </si>
+  <si>
+    <t>its too ugly</t>
+  </si>
+  <si>
+    <t>outshoots</t>
+  </si>
+  <si>
+    <t>any of my Smiths</t>
+  </si>
+  <si>
+    <t>If it outshoots any of my Smiths I might give it a run .</t>
+  </si>
+  <si>
+    <t>might give</t>
+  </si>
+  <si>
+    <t>'ve been wanting</t>
+  </si>
+  <si>
+    <t>a Sky Marshall</t>
+  </si>
+  <si>
+    <t>I 've been wanting a Sky Marshall when I can find one for sale .</t>
+  </si>
+  <si>
+    <t>can find one for</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>the rail</t>
+  </si>
+  <si>
+    <t>I think the rail is for a bayonet or ... I 'm thinking can opener ?</t>
+  </si>
+  <si>
+    <t>is for</t>
+  </si>
+  <si>
+    <t>a bayonet or</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>the rails</t>
+  </si>
+  <si>
+    <t>At least that what I use the rails on AR for .</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>Glocks</t>
+  </si>
+  <si>
+    <t>And all this time I thought Glocks were the ugliest guns .</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>the ugliest guns</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>have just proved</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>You have just proved me wrong .</t>
+  </si>
+  <si>
+    <t>firearms</t>
+  </si>
+  <si>
+    <t>must fall within</t>
+  </si>
+  <si>
+    <t>one of the following categories</t>
+  </si>
+  <si>
+    <t>To be recognized as C&amp;amp;R items , 478.11 specifies that firearms must fall within one of the following categories :Any other firearms which derive a substantial part of their monetary value from the fact that they are novel , rare , bizarre , or because of their association with some historical figure , period , or event .</t>
+  </si>
+  <si>
+    <t>other firearms</t>
+  </si>
+  <si>
+    <t>derive a substantial part of</t>
+  </si>
+  <si>
+    <t>their monetary value</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>novel , rare , bizarre ,</t>
+  </si>
+  <si>
+    <t>Korth</t>
+  </si>
+  <si>
+    <t>is widening</t>
+  </si>
+  <si>
+    <t>their offerings</t>
+  </si>
+  <si>
+    <t>Korth is widening their offerings lately to jump the hurdle of only being seen as a high-end revolver producer .</t>
+  </si>
+  <si>
+    <t>new , more utilitarian revolver models</t>
+  </si>
+  <si>
+    <t>is clearly</t>
+  </si>
+  <si>
+    <t>the direction</t>
+  </si>
+  <si>
+    <t>Between their semi-auto offerings and new , more utilitarian revolver models , that is clearly the direction they are heading .</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>law enforcement</t>
+  </si>
+  <si>
+    <t>How would it benefit law enforcement ?</t>
+  </si>
+  <si>
+    <t>I think it 's beautiful , I guess I 'm just really into PPC guns . .</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>'m just really into</t>
+  </si>
+  <si>
+    <t>PPC guns</t>
+  </si>
+  <si>
+    <t>I guess they are looking to expand their brand by going &amp;quot;downmarket&amp;quot ; . .</t>
+  </si>
+  <si>
+    <t>are looking to expand</t>
+  </si>
+  <si>
+    <t>their brand</t>
+  </si>
+  <si>
+    <t>personally do n't really like</t>
+  </si>
+  <si>
+    <t>the looks</t>
+  </si>
+  <si>
+    <t>I personally do n't really like the looks I 'd rather have a regular Korth but it would be a strange and boring world if everyone liked the same exact guns , women , booze , music or whatever .</t>
+  </si>
+  <si>
+    <t>'d rather have</t>
+  </si>
+  <si>
+    <t>a regular Korth</t>
+  </si>
+  <si>
+    <t>would be</t>
+  </si>
+  <si>
+    <t>a strange and boring world</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>the same exact guns</t>
+  </si>
+  <si>
+    <t>sound like</t>
+  </si>
+  <si>
+    <t>an uneducated , welfare sipping</t>
+  </si>
+  <si>
+    <t>You sound like an uneducated , welfare sipping , Prius driving , skinny jean wearing , Obama worshiping , electronic cigarette smoking , fixie riding , Starbucks drinking , liberal entitled punk .</t>
+  </si>
+  <si>
+    <t>our rulers</t>
+  </si>
+  <si>
+    <t>They are our rulers .</t>
+  </si>
+  <si>
+    <t>the picture</t>
+  </si>
+  <si>
+    <t>looks like</t>
+  </si>
+  <si>
+    <t>The Korth in the picture looks like it 's made of Legos .</t>
+  </si>
+  <si>
+    <t>'s made of</t>
+  </si>
+  <si>
+    <t>Legos</t>
+  </si>
+  <si>
+    <t>All times</t>
+  </si>
+  <si>
+    <t>GMT</t>
+  </si>
+  <si>
+    <t>All times are GMT -8.</t>
+  </si>
+  <si>
+    <t>Useful</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I almost brought a Bill Davis PPC gun</t>
+  </si>
+  <si>
+    <t>I began to think</t>
+  </si>
+  <si>
+    <t>Common sense is like deodorant.</t>
+  </si>
+  <si>
+    <t>It originally had the standard fluted cylinder, but I sent it back to the motherland for the non-fluted cylinder.</t>
+  </si>
+  <si>
+    <t>That Korth is like the anus of the revolver world</t>
+  </si>
+  <si>
+    <t>SAE on a S&amp;W simply involves popping the sideplate and plucking out the DA sear.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -40,6 +481,17 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,8 +514,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -341,12 +806,963 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="20.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="40.5" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A52">
+      <formula1>"Useful, Useless"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="52.1640625" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
